--- a/CRM/ExcelSheets/SuiteA.xlsx
+++ b/CRM/ExcelSheets/SuiteA.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="34">
   <si>
     <t>TCID</t>
   </si>
@@ -120,6 +120,9 @@
   </si>
   <si>
     <t>uPassword</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -216,7 +219,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -226,6 +229,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -566,10 +570,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -580,12 +584,15 @@
     <col min="4" max="4" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -598,8 +605,11 @@
       <c r="D2" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -612,8 +622,11 @@
       <c r="D3" s="8" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -626,13 +639,36 @@
       <c r="D4" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>1</v>
       </c>
@@ -645,8 +681,11 @@
       <c r="D7" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -659,8 +698,11 @@
       <c r="D8" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -673,13 +715,36 @@
       <c r="D9" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>1</v>
       </c>
@@ -692,8 +757,11 @@
       <c r="D12" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>7</v>
       </c>
@@ -706,8 +774,11 @@
       <c r="D13" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>7</v>
       </c>
@@ -720,13 +791,36 @@
       <c r="D14" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>1</v>
       </c>
@@ -739,8 +833,11 @@
       <c r="D17" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>7</v>
       </c>
@@ -753,8 +850,11 @@
       <c r="D18" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>7</v>
       </c>
@@ -766,6 +866,23 @@
       </c>
       <c r="D19" s="1" t="s">
         <v>15</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -781,7 +898,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>

--- a/CRM/ExcelSheets/SuiteA.xlsx
+++ b/CRM/ExcelSheets/SuiteA.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -572,7 +572,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -898,8 +898,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/CRM/ExcelSheets/SuiteA.xlsx
+++ b/CRM/ExcelSheets/SuiteA.xlsx
@@ -573,7 +573,7 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -899,7 +899,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
